--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,41 @@
         <v>237100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43014,6 +43014,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>40600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43049,6 +43049,41 @@
         <v>40600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43084,6 +43084,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>191100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +43119,41 @@
         <v>191100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>59572400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         <v>59572400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>169399000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>169399000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>42751200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>42751200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>23780200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>23780200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>17950200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>17950200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>35863100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>35863100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>39883800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>39883800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>7342800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,76 @@
         <v>7342800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>42908500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>15859100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,76 @@
         <v>15859100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>30027700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>16335600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,41 @@
         <v>16335600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>29197200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,41 @@
         <v>29197200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5359600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,41 @@
         <v>5359600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>7956200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43644,6 +43644,41 @@
         <v>7956200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>66045800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,76 @@
         <v>66045800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>41939000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>24978200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,41 @@
         <v>24978200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>20800400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,41 @@
         <v>20800400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>24580100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1402"/>
+  <dimension ref="A1:I1403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49454,6 +49454,41 @@
         <v>24580100</v>
       </c>
     </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>15566600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1403"/>
+  <dimension ref="A1:I1404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49489,6 +49489,41 @@
         <v>15566600</v>
       </c>
     </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>12492100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1404"/>
+  <dimension ref="A1:I1405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49524,6 +49524,41 @@
         <v>12492100</v>
       </c>
     </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>15432600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1405"/>
+  <dimension ref="A1:I1406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49559,6 +49559,41 @@
         <v>15432600</v>
       </c>
     </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>25241200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1406"/>
+  <dimension ref="A1:I1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49594,6 +49594,41 @@
         <v>25241200</v>
       </c>
     </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>23892400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1407"/>
+  <dimension ref="A1:I1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49629,6 +49629,41 @@
         <v>23892400</v>
       </c>
     </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>3048300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1408"/>
+  <dimension ref="A1:I1409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49664,6 +49664,41 @@
         <v>3048300</v>
       </c>
     </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1409" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>2080600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1409"/>
+  <dimension ref="A1:I1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49699,6 +49699,41 @@
         <v>2080600</v>
       </c>
     </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1410" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>30097600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1410"/>
+  <dimension ref="A1:I1411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49734,6 +49734,41 @@
         <v>30097600</v>
       </c>
     </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1411" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>5244900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1411"/>
+  <dimension ref="A1:I1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49769,6 +49769,41 @@
         <v>5244900</v>
       </c>
     </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>11937000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1412"/>
+  <dimension ref="A1:I1413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49804,6 +49804,41 @@
         <v>11937000</v>
       </c>
     </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>8599000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1413"/>
+  <dimension ref="A1:I1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49839,6 +49839,41 @@
         <v>8599000</v>
       </c>
     </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>49299600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1414"/>
+  <dimension ref="A1:I1415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49874,6 +49874,41 @@
         <v>49299600</v>
       </c>
     </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>53393000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1415"/>
+  <dimension ref="A1:I1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49909,6 +49909,41 @@
         <v>53393000</v>
       </c>
     </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>87204400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1416"/>
+  <dimension ref="A1:I1417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49944,6 +49944,41 @@
         <v>87204400</v>
       </c>
     </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>60852400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1417"/>
+  <dimension ref="A1:I1418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49979,6 +49979,41 @@
         <v>60852400</v>
       </c>
     </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>27001900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1418"/>
+  <dimension ref="A1:I1419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50014,6 +50014,41 @@
         <v>27001900</v>
       </c>
     </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1419" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>44282600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1419"/>
+  <dimension ref="A1:I1420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50049,6 +50049,41 @@
         <v>44282600</v>
       </c>
     </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1420" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>26449000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1420"/>
+  <dimension ref="A1:I1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50084,6 +50084,41 @@
         <v>26449000</v>
       </c>
     </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1421" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>20326100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1421"/>
+  <dimension ref="A1:I1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50119,6 +50119,41 @@
         <v>20326100</v>
       </c>
     </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>17279800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1422"/>
+  <dimension ref="A1:I1423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50154,6 +50154,41 @@
         <v>17279800</v>
       </c>
     </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1423" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>4646000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1423"/>
+  <dimension ref="A1:I1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50189,6 +50189,41 @@
         <v>4646000</v>
       </c>
     </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1424" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>12684700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1424"/>
+  <dimension ref="A1:I1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50224,6 +50224,41 @@
         <v>12684700</v>
       </c>
     </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1425" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>19986700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1425"/>
+  <dimension ref="A1:I1426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50259,6 +50259,41 @@
         <v>19986700</v>
       </c>
     </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1426" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>4423200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1426"/>
+  <dimension ref="A1:I1427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50294,6 +50294,41 @@
         <v>4423200</v>
       </c>
     </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1427" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>18206100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1427"/>
+  <dimension ref="A1:I1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50329,6 +50329,76 @@
         <v>18206100</v>
       </c>
     </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1428" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>6475500</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1429" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>17156400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1429"/>
+  <dimension ref="A1:I1430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50399,6 +50399,41 @@
         <v>17156400</v>
       </c>
     </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1430" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>13881900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1430"/>
+  <dimension ref="A1:I1433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50434,6 +50434,111 @@
         <v>13881900</v>
       </c>
     </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1431" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>376300</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1432" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>8719000</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1433" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>2829100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1433"/>
+  <dimension ref="A1:I1434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50539,6 +50539,41 @@
         <v>2829100</v>
       </c>
     </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1434" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>7102600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1434"/>
+  <dimension ref="A1:I1435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50574,6 +50574,41 @@
         <v>7102600</v>
       </c>
     </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1435" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>1663400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5255.xlsx
+++ b/data/5255.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1435"/>
+  <dimension ref="A1:I1438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50609,6 +50609,111 @@
         <v>1663400</v>
       </c>
     </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1436" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>39186500</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1437" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>4778800</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>5255</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>ICON</t>
+        </is>
+      </c>
+      <c r="E1438" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>23659100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
